--- a/Modelo/Dewasme/HIPPO/of/No Modificables/HIPPO_Results.xlsx
+++ b/Modelo/Dewasme/HIPPO/of/No Modificables/HIPPO_Results.xlsx
@@ -13,7 +13,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>FFF</t>
+  </si>
+  <si>
+    <t>Fobj</t>
+  </si>
+  <si>
+    <t>CCc</t>
+  </si>
+  <si>
+    <t>Akaike</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>I955</t>
+  </si>
   <si>
     <t>FFF</t>
   </si>
@@ -75,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -85,14 +106,16 @@
     </border>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="true"/>
@@ -116,25 +139,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -206,6 +229,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>530.47434745621342</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>59.285999806066812</v>
+      </c>
+      <c r="E5" s="0">
+        <v>43.169139477531473</v>
+      </c>
+      <c r="F5" s="0">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>